--- a/biology/Botanique/Lepidodendrales/Lepidodendrales.xlsx
+++ b/biology/Botanique/Lepidodendrales/Lepidodendrales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lepidodendrales sont un ordre fossile de plantes de la classe des Lycopodiopsida.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Lepidodendrales est attribué au biologiste allemand Ernst Haeckel, qui le crée en 1868 sous le nom de Lepidodendreae, dans son ouvrage Natürliche Schöpfungsgeschichte[1]. Lepidodendron est le genre type de cet ordre et de la famille des Lepidodendraceae[2].
-Les Lepidodendrales sont classés dans la classe des Lycopodiopsida, sous-division des Lycopodiophytina[3], ou dans la classe des Lepidodendropsida, division des Lycopodiophyta[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Lepidodendrales est attribué au biologiste allemand Ernst Haeckel, qui le crée en 1868 sous le nom de Lepidodendreae, dans son ouvrage Natürliche Schöpfungsgeschichte. Lepidodendron est le genre type de cet ordre et de la famille des Lepidodendraceae.
+Les Lepidodendrales sont classés dans la classe des Lycopodiopsida, sous-division des Lycopodiophytina, ou dans la classe des Lepidodendropsida, division des Lycopodiophyta.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des familles et genres non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l'IRMNG  (1er juillet 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l'IRMNG  (1er juillet 2022) :
 Diaphorodendraceae †
 Diplotegiaceae †
 Diploxylaceae †
@@ -584,7 +600,7 @@
 Pseudosigillaria F.C. Grand'Eury, 1877 †
 Stigmarites P. Fliche, 1903 †
 Volnovakhia M.D. Zalessky, 1931 †
-Selon The International Fossil Plant Names Index (IFPNI)                (1er juillet 2022)[2] :
+Selon The International Fossil Plant Names Index (IFPNI)                (1er juillet 2022) :
 sous-ordre des Eulepidodendrales
 Lepidodendraceae
 Lepidosigillariaceae
@@ -607,7 +623,7 @@
 Pseudocyclostigma
 Pseudosigillaria
 Viatcheslaviophyllum
-Selon la Paleobiology Database                   (1er juillet 2022)[4] :
+Selon la Paleobiology Database                   (1er juillet 2022) :
 Diaphorodendraceae
 Lepidodendrales incertae sedis
 Lycopogenia Read, 1936</t>
